--- a/data/hotels_by_city/Houston/Houston_shard_118.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_118.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="263">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56123-d225740-Reviews-Comfort_Suites-Lake_Jackson_Texas.html</t>
   </si>
   <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Lake-Jackson-Hotels-Comfort-Suites.h580260.Hotel-Information?chkin=7%2F9%2F2018&amp;chkout=7%2F10%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530382745721&amp;cancellable=false&amp;regionId=6059004&amp;vip=false&amp;c=79c946e2-15b5-45a2-9125-435c75494b19&amp;mctc=9&amp;exp_dp=96.89&amp;exp_ts=1530382746157&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,737 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r562233673-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>56123</t>
+  </si>
+  <si>
+    <t>225740</t>
+  </si>
+  <si>
+    <t>562233673</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>Not Bad, but we expected more for the price.</t>
+  </si>
+  <si>
+    <t>The short of it is that if you pay less than about $120 (before tax), then this hotel gets 4 stars, but we paid more &amp;  it just didn't warrant that.-Beds were fine, but pillows could have been better.-Like most of the hotels that close to the ocean, there's a bit of a musty smell, but you get used to it quickly.-The AC unit has a 'constant fan' option, but the temp settings don't work if you use it, so whatever temp it is outside will end up the same inside.The hotel looks nice &amp; offers a pretty good breakfast. Front desk staff was pleasant.Bottom line is that it's a nice place to stay, but not outstanding.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Comfort S, General Manager at Comfort Suites, responded to this reviewResponded February 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2018</t>
+  </si>
+  <si>
+    <t>The short of it is that if you pay less than about $120 (before tax), then this hotel gets 4 stars, but we paid more &amp;  it just didn't warrant that.-Beds were fine, but pillows could have been better.-Like most of the hotels that close to the ocean, there's a bit of a musty smell, but you get used to it quickly.-The AC unit has a 'constant fan' option, but the temp settings don't work if you use it, so whatever temp it is outside will end up the same inside.The hotel looks nice &amp; offers a pretty good breakfast. Front desk staff was pleasant.Bottom line is that it's a nice place to stay, but not outstanding.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r534864833-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>534864833</t>
+  </si>
+  <si>
+    <t>10/21/2017</t>
+  </si>
+  <si>
+    <t>OK Place to stay</t>
+  </si>
+  <si>
+    <t>Located right across the street from DOW chemicals. I am sure the hotel gets a lot of their business from DOW. The location is good. The staff were friendly. The room was large and comfortable. For breakfast, their eggs with cream cheese was amazing. On the negative side, the maintenance is showing a lack of attention to details that will catch up with them. The show head would not adjust and did not flow well. The tape job on the last painting was not done well in the bathroom, Paint on the door stop where it should not have been. The bathroom door had paint on the door handle. This shows shoddy workmanship, lack of attention to details.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Located right across the street from DOW chemicals. I am sure the hotel gets a lot of their business from DOW. The location is good. The staff were friendly. The room was large and comfortable. For breakfast, their eggs with cream cheese was amazing. On the negative side, the maintenance is showing a lack of attention to details that will catch up with them. The show head would not adjust and did not flow well. The tape job on the last painting was not done well in the bathroom, Paint on the door stop where it should not have been. The bathroom door had paint on the door handle. This shows shoddy workmanship, lack of attention to details.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r504718524-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>504718524</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Good but could be better</t>
+  </si>
+  <si>
+    <t>We enjoyed a spacious room suitable for a couple or for someone here in business.  The bed was comfortable.  The staff was professional and helpful.  The hotel was well located for our trip. Those were the very good things.The things that could be improved:  I can never understand why rooms like this are so underlit-- 1 lamp for two queen beds?  1 lamp at one end of a sofa for two?  The breakfast was uninspiring, so that the second morning we went elsewhere.  Finally, there was a slight smell of sewage in the hall outside our room.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r480731700-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>480731700</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Nice place to stat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stopped here for the night while traveling through Texas. We didn't want to stay in the touristy Galveston area and nothing further down had great reviews until we got here. It was comfort, clean, and friendly. My only complaint was the lighting in the room was dim, no matter how many lights you turned on. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r477293581-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>477293581</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>Would definitely stay again</t>
+  </si>
+  <si>
+    <t>We stayed at comfort suites for three nights in April 2017. Rooms and lobby were immaculate. Staff very friendly and attentive. Most importantly the motel was quiet. It would be nice if the motel had a hot tub.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>CSLJ, Manager at Comfort Suites, responded to this reviewResponded April 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at comfort suites for three nights in April 2017. Rooms and lobby were immaculate. Staff very friendly and attentive. Most importantly the motel was quiet. It would be nice if the motel had a hot tub.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r465889442-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>465889442</t>
+  </si>
+  <si>
+    <t>03/09/2017</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for one night while in the area attending a funeral.  The place was tidy and clean, front reception was friendly, and the breakfast was plenty.  If ever in the area, we would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>CSLJ, Front Office Manager at Comfort Suites, responded to this reviewResponded April 21, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for one night while in the area attending a funeral.  The place was tidy and clean, front reception was friendly, and the breakfast was plenty.  If ever in the area, we would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r448702807-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>448702807</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>With Comfort Suites you get a nice mid priced hotel, this property is better than most</t>
+  </si>
+  <si>
+    <t>We have stayed at Comfort Suites all over the USA and while most are very similar, this one is a touch better than most.  
+With Comfort Suites, one of their big points is how similar the properties are.  You know exactly what you will get if you have been to one and now want to go to another.  This one had a few surprises that we were not expecting- all of which were positive.  
+For example, my biggest complaint with most Comfort Suites is the quality of the pillows.  Generally you get these little squares of a pillow with no real feel other than a layer of foam inside a pillowcase.  These were surprisingly usable and comfortable.  They were as large as a standard pillow and had a feel that provided both support and give.  I have not often had that feel in a hotel pillow.
+My other complaint is usually regarding the lighting. I did not check on the wattage of the bulbs but they were definitely brighter than what I generally see at Comfort Suites.  A very nice and welcomed surprise. 
+Both my wife and I noticed the incredible number of USB recharging stations in the desk, in the nightstands and in the lamps.  I did not need to use my power strip at all - which is not usually the case (two phones, two tablets, two keyboards, and a camera).  One bit of warning, it appears that...We have stayed at Comfort Suites all over the USA and while most are very similar, this one is a touch better than most.  With Comfort Suites, one of their big points is how similar the properties are.  You know exactly what you will get if you have been to one and now want to go to another.  This one had a few surprises that we were not expecting- all of which were positive.  For example, my biggest complaint with most Comfort Suites is the quality of the pillows.  Generally you get these little squares of a pillow with no real feel other than a layer of foam inside a pillowcase.  These were surprisingly usable and comfortable.  They were as large as a standard pillow and had a feel that provided both support and give.  I have not often had that feel in a hotel pillow.My other complaint is usually regarding the lighting. I did not check on the wattage of the bulbs but they were definitely brighter than what I generally see at Comfort Suites.  A very nice and welcomed surprise. Both my wife and I noticed the incredible number of USB recharging stations in the desk, in the nightstands and in the lamps.  I did not need to use my power strip at all - which is not usually the case (two phones, two tablets, two keyboards, and a camera).  One bit of warning, it appears that the power plugs in the desk are turned off when the light switch on the wall is turned off.  We had already turned off the light when we turned off the wall switch and did not notice the lack of a charge until late in the morning. Not a biggie though which we were aware of and compensated for the other days of the trip.As I mentioned, the hotel is a step above other Comfort Suites that I have been to lately.  Case in point is the large freshwater aquarium in the lobby.  it is full of African cichlids including some babies.  The manager informed me that the fish spawn every so often and keep the tank continuously stocked as the babies age. We were informed that there is a freshwater lobster in the tank but he is usually hiding.  He came out for us.The hotel is right next door to the new Dow Chemical buildings which provide a great landmark.  Go up the service road off the highway, pass by the Dow monument sign and turn right up the side street.  The hotel's entrance in on the left.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>We have stayed at Comfort Suites all over the USA and while most are very similar, this one is a touch better than most.  
+With Comfort Suites, one of their big points is how similar the properties are.  You know exactly what you will get if you have been to one and now want to go to another.  This one had a few surprises that we were not expecting- all of which were positive.  
+For example, my biggest complaint with most Comfort Suites is the quality of the pillows.  Generally you get these little squares of a pillow with no real feel other than a layer of foam inside a pillowcase.  These were surprisingly usable and comfortable.  They were as large as a standard pillow and had a feel that provided both support and give.  I have not often had that feel in a hotel pillow.
+My other complaint is usually regarding the lighting. I did not check on the wattage of the bulbs but they were definitely brighter than what I generally see at Comfort Suites.  A very nice and welcomed surprise. 
+Both my wife and I noticed the incredible number of USB recharging stations in the desk, in the nightstands and in the lamps.  I did not need to use my power strip at all - which is not usually the case (two phones, two tablets, two keyboards, and a camera).  One bit of warning, it appears that...We have stayed at Comfort Suites all over the USA and while most are very similar, this one is a touch better than most.  With Comfort Suites, one of their big points is how similar the properties are.  You know exactly what you will get if you have been to one and now want to go to another.  This one had a few surprises that we were not expecting- all of which were positive.  For example, my biggest complaint with most Comfort Suites is the quality of the pillows.  Generally you get these little squares of a pillow with no real feel other than a layer of foam inside a pillowcase.  These were surprisingly usable and comfortable.  They were as large as a standard pillow and had a feel that provided both support and give.  I have not often had that feel in a hotel pillow.My other complaint is usually regarding the lighting. I did not check on the wattage of the bulbs but they were definitely brighter than what I generally see at Comfort Suites.  A very nice and welcomed surprise. Both my wife and I noticed the incredible number of USB recharging stations in the desk, in the nightstands and in the lamps.  I did not need to use my power strip at all - which is not usually the case (two phones, two tablets, two keyboards, and a camera).  One bit of warning, it appears that the power plugs in the desk are turned off when the light switch on the wall is turned off.  We had already turned off the light when we turned off the wall switch and did not notice the lack of a charge until late in the morning. Not a biggie though which we were aware of and compensated for the other days of the trip.As I mentioned, the hotel is a step above other Comfort Suites that I have been to lately.  Case in point is the large freshwater aquarium in the lobby.  it is full of African cichlids including some babies.  The manager informed me that the fish spawn every so often and keep the tank continuously stocked as the babies age. We were informed that there is a freshwater lobster in the tank but he is usually hiding.  He came out for us.The hotel is right next door to the new Dow Chemical buildings which provide a great landmark.  Go up the service road off the highway, pass by the Dow monument sign and turn right up the side street.  The hotel's entrance in on the left.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r444688832-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>444688832</t>
+  </si>
+  <si>
+    <t>12/16/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel needs to repair bathroom</t>
+  </si>
+  <si>
+    <t>Please fix the bathrooms. Rust in a $122 dollar rooms bathroom is bad. As a person who has traveled a bunch. I dislike bathroom and rooms not being repaired. Rust in a room is something shows little care for your guest.MoreShow less</t>
+  </si>
+  <si>
+    <t>CSLJ, Manager at Comfort Suites, responded to this reviewResponded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Please fix the bathrooms. Rust in a $122 dollar rooms bathroom is bad. As a person who has traveled a bunch. I dislike bathroom and rooms not being repaired. Rust in a room is something shows little care for your guest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r434785157-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>434785157</t>
+  </si>
+  <si>
+    <t>11/05/2016</t>
+  </si>
+  <si>
+    <t>Spacious rooms and free breakfast</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights with family and friends.  Had an issue with the key cards not working initially on arrival, many other folks that had just checked in had the same issue.  The room setup is nice with a couch and several tables.  There's a fridge and microwave.  A work center and office chair.  The bathroom, although large, was old and worn.  Toilet seat was stained and scraped up.  Shower curtain had holes.  Fixtures were old.  Good water pressure.  Everything was in working order.  Pool open 10-10, but had to get the desk clerk to open it for us.  Breakfast is hot, but typical of hotels.  They probably had more healthy breakfast options than normal though.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights with family and friends.  Had an issue with the key cards not working initially on arrival, many other folks that had just checked in had the same issue.  The room setup is nice with a couch and several tables.  There's a fridge and microwave.  A work center and office chair.  The bathroom, although large, was old and worn.  Toilet seat was stained and scraped up.  Shower curtain had holes.  Fixtures were old.  Good water pressure.  Everything was in working order.  Pool open 10-10, but had to get the desk clerk to open it for us.  Breakfast is hot, but typical of hotels.  They probably had more healthy breakfast options than normal though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r368442411-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>368442411</t>
+  </si>
+  <si>
+    <t>04/28/2016</t>
+  </si>
+  <si>
+    <t>Poor Management / Customer Service</t>
+  </si>
+  <si>
+    <t>Reserved a room for a corporate guest who was attending training at Brazosport College.  Booked the room through our corporate reservation tool and had a confirmation to apply charges to a third party credit card.  To my surprise, guest services made our guest personally pay for the room!  Very embarrassing.  Then on his next stay - our guest said he left for the day and came back to find the door to his room propped open with the safety bar - housekeeping should be accountable to ensure the room is locked behind them.  His personal items could have been stolen.  Unacceptable!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>CSLJ, Manager at Comfort Suites, responded to this reviewResponded May 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2016</t>
+  </si>
+  <si>
+    <t>Reserved a room for a corporate guest who was attending training at Brazosport College.  Booked the room through our corporate reservation tool and had a confirmation to apply charges to a third party credit card.  To my surprise, guest services made our guest personally pay for the room!  Very embarrassing.  Then on his next stay - our guest said he left for the day and came back to find the door to his room propped open with the safety bar - housekeeping should be accountable to ensure the room is locked behind them.  His personal items could have been stolen.  Unacceptable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r358289658-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>358289658</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>The area busy so natrualy they will fill rooms</t>
+  </si>
+  <si>
+    <t>well they did real good getting me in the room after almost being full , but once i got into my room i started checking coffee machine and i found green mold in the water fill site the counter help really was not friendly enough to want to answer your questions and i was not the only one at that time that felt that way if you want a room  and a fair breakfast its ok just check coffee machine so you don't get ill. very little parking also if you driver service truck</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r296297378-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>296297378</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Rediculously Expensive Ain't The Worst Part</t>
+  </si>
+  <si>
+    <t>Do yourselves a favor and don't spend this much money when you could stay at a Hilton or Marriott chain nearby.
+This property was the most expensive property around and  you would not expect to have bugs in your room, something in the bathtub that looks like either explosive diarrhea or vomit that has not been cleaned, and a sign on your room air conditioner warning you that they have locked out the thermostat so you cannot set it below 68°F,  I have photos and will upload them if I can.
+I agree that 68° is plenty cold enough but these thermostats on a window unit are not always the most accurate. I was laying in my bed sweating with no covers on for most of the night.  I stay in hotels over 200 nights per year and have run across this just once or twice. They need to let you know when you're making the reservation that they have these limits in place. 
+The bed was nothing to write home about but was not uncomfortable either.
+The "breakfast" that they serve there is completely ridiculous. You would actually get something that most people would refer to as breakfast at the Marriott or Hilton hotel chains. 
+You would also expect the highest priced hotel around to be able to slide your receipt under the door so they don't inconvenience you and make you have to go to the front desk...Do yourselves a favor and don't spend this much money when you could stay at a Hilton or Marriott chain nearby.This property was the most expensive property around and  you would not expect to have bugs in your room, something in the bathtub that looks like either explosive diarrhea or vomit that has not been cleaned, and a sign on your room air conditioner warning you that they have locked out the thermostat so you cannot set it below 68°F,  I have photos and will upload them if I can.I agree that 68° is plenty cold enough but these thermostats on a window unit are not always the most accurate. I was laying in my bed sweating with no covers on for most of the night.  I stay in hotels over 200 nights per year and have run across this just once or twice. They need to let you know when you're making the reservation that they have these limits in place. The bed was nothing to write home about but was not uncomfortable either.The "breakfast" that they serve there is completely ridiculous. You would actually get something that most people would refer to as breakfast at the Marriott or Hilton hotel chains. You would also expect the highest priced hotel around to be able to slide your receipt under the door so they don't inconvenience you and make you have to go to the front desk and wait for the attendant to get off the phone like I did.MoreShow less</t>
+  </si>
+  <si>
+    <t>Do yourselves a favor and don't spend this much money when you could stay at a Hilton or Marriott chain nearby.
+This property was the most expensive property around and  you would not expect to have bugs in your room, something in the bathtub that looks like either explosive diarrhea or vomit that has not been cleaned, and a sign on your room air conditioner warning you that they have locked out the thermostat so you cannot set it below 68°F,  I have photos and will upload them if I can.
+I agree that 68° is plenty cold enough but these thermostats on a window unit are not always the most accurate. I was laying in my bed sweating with no covers on for most of the night.  I stay in hotels over 200 nights per year and have run across this just once or twice. They need to let you know when you're making the reservation that they have these limits in place. 
+The bed was nothing to write home about but was not uncomfortable either.
+The "breakfast" that they serve there is completely ridiculous. You would actually get something that most people would refer to as breakfast at the Marriott or Hilton hotel chains. 
+You would also expect the highest priced hotel around to be able to slide your receipt under the door so they don't inconvenience you and make you have to go to the front desk...Do yourselves a favor and don't spend this much money when you could stay at a Hilton or Marriott chain nearby.This property was the most expensive property around and  you would not expect to have bugs in your room, something in the bathtub that looks like either explosive diarrhea or vomit that has not been cleaned, and a sign on your room air conditioner warning you that they have locked out the thermostat so you cannot set it below 68°F,  I have photos and will upload them if I can.I agree that 68° is plenty cold enough but these thermostats on a window unit are not always the most accurate. I was laying in my bed sweating with no covers on for most of the night.  I stay in hotels over 200 nights per year and have run across this just once or twice. They need to let you know when you're making the reservation that they have these limits in place. The bed was nothing to write home about but was not uncomfortable either.The "breakfast" that they serve there is completely ridiculous. You would actually get something that most people would refer to as breakfast at the Marriott or Hilton hotel chains. You would also expect the highest priced hotel around to be able to slide your receipt under the door so they don't inconvenience you and make you have to go to the front desk and wait for the attendant to get off the phone like I did.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r252570161-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>252570161</t>
+  </si>
+  <si>
+    <t>02/04/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel in Lake Jackson</t>
+  </si>
+  <si>
+    <t>Friendly staff.  Good breakast selection.  Well maintained building.  Nice looking property inside and out.  My room was quiet and had a good size to it.  Good location in Lake Jackson, close to restuarants, downtown area, and MacLean park.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>CSLJ, Manager at Comfort Suites, responded to this reviewResponded February 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2015</t>
+  </si>
+  <si>
+    <t>Friendly staff.  Good breakast selection.  Well maintained building.  Nice looking property inside and out.  My room was quiet and had a good size to it.  Good location in Lake Jackson, close to restuarants, downtown area, and MacLean park.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r248403122-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>248403122</t>
+  </si>
+  <si>
+    <t>01/09/2015</t>
+  </si>
+  <si>
+    <t>Great Place to Stay!</t>
+  </si>
+  <si>
+    <t>Our room was clean.  Air conditioner worked fine.  Staff was friendly &amp; helpful.  Loved the exercise room, equip was great!  Good location not far from shopping.  No complaints everything was great!  (And I am very picky about hotel rooms.)MoreShow less</t>
+  </si>
+  <si>
+    <t>CSLJ, Manager at Comfort Suites, responded to this reviewResponded January 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2015</t>
+  </si>
+  <si>
+    <t>Our room was clean.  Air conditioner worked fine.  Staff was friendly &amp; helpful.  Loved the exercise room, equip was great!  Good location not far from shopping.  No complaints everything was great!  (And I am very picky about hotel rooms.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r237395141-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>237395141</t>
+  </si>
+  <si>
+    <t>11/01/2014</t>
+  </si>
+  <si>
+    <t>Friendly Hospitality in Lake Jackson</t>
+  </si>
+  <si>
+    <t>I stayed here at the Candlewood Suites Lake Jackson for one quick night.  The hotel is a very good option if you are visiting the chemical plants down south in Freeport.   It's a short 10 minute drive down to Freeport. The hotel is a little bit on the older side, but the rooms are clean and quiet.  The bed is comfortable and the sheets were clean and nice.  The breakfast is fair (cereal, waffles, etc.) and standard for hotels in this price range. What I really enjoyed here was the friendly manager.   Flying in from Los Angeles, I could sense he took pride of management and his hotel.  I also sensed his sincerity in ensuring people enjoyed their stay at the hotel.  I really liked that.  I recommend this hotel and would stay again if staying in Lake Jackson.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>I stayed here at the Candlewood Suites Lake Jackson for one quick night.  The hotel is a very good option if you are visiting the chemical plants down south in Freeport.   It's a short 10 minute drive down to Freeport. The hotel is a little bit on the older side, but the rooms are clean and quiet.  The bed is comfortable and the sheets were clean and nice.  The breakfast is fair (cereal, waffles, etc.) and standard for hotels in this price range. What I really enjoyed here was the friendly manager.   Flying in from Los Angeles, I could sense he took pride of management and his hotel.  I also sensed his sincerity in ensuring people enjoyed their stay at the hotel.  I really liked that.  I recommend this hotel and would stay again if staying in Lake Jackson.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r201282991-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>201282991</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>What a comfortable stay in Lake Jackson !</t>
+  </si>
+  <si>
+    <t>Nice spacious room and a safe place to stay as a single woman. Beds were Very comfortable  and lots of pillows. Nice bath.  Check in and check out were fast and easy. Everyone there was very friendly and helpful. The good location made it easy to get to different places in the area. Very clean. Good breakfast. Made my  stay in Lake Jackson a very pleasant one. I'm so glad my friend recommended it to me !  MLB</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r197776863-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>197776863</t>
+  </si>
+  <si>
+    <t>03/17/2014</t>
+  </si>
+  <si>
+    <t>Great Stay in Lake Jackson TX</t>
+  </si>
+  <si>
+    <t>Check in and check out were fast and easy.  The room was very nice and included a refrigerator and microwave.  Bed was super comfortable with lots of extra pillows.  Seating area in room was spacious.  Bathroom was very nice.  Everything was clean and neat.  The breakfast was especially nice.  We liked the waffles in the shape of Texas!  All the staff was friendly and helpful.  Lots of handicapped parking available.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>CSLJ, Manager at Comfort Suites, responded to this reviewResponded March 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2014</t>
+  </si>
+  <si>
+    <t>Check in and check out were fast and easy.  The room was very nice and included a refrigerator and microwave.  Bed was super comfortable with lots of extra pillows.  Seating area in room was spacious.  Bathroom was very nice.  Everything was clean and neat.  The breakfast was especially nice.  We liked the waffles in the shape of Texas!  All the staff was friendly and helpful.  Lots of handicapped parking available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r195955042-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>195955042</t>
+  </si>
+  <si>
+    <t>03/02/2014</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>It is pricier than the other hotels but I believe it is the best option for staying in the Lake Jackson area.  We have stayed there twice in the last six months.  The breakfast buffet is very good and there is a waffle maker.  The front desk persons were very helpful.  The pool is small, but there doesn't seem to be a lot of people using it anyway.  There is a small fitness room, but it does have a variety of machines.  Comfortable and clean rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>CSLJ, Manager at Comfort Suites, responded to this reviewResponded March 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2014</t>
+  </si>
+  <si>
+    <t>It is pricier than the other hotels but I believe it is the best option for staying in the Lake Jackson area.  We have stayed there twice in the last six months.  The breakfast buffet is very good and there is a waffle maker.  The front desk persons were very helpful.  The pool is small, but there doesn't seem to be a lot of people using it anyway.  There is a small fitness room, but it does have a variety of machines.  Comfortable and clean rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r167841909-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>167841909</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>Pleasant Suprise!</t>
+  </si>
+  <si>
+    <t>On my way to Galveston, spent the night of July 5 in Lake Jackson, TX with absolutely no idea where to stay in an area close to lots of industry.  I chose Comfort Suites because it was clean on the outside, the area was very quite and the lobby was clean.  My room/suite was a little expensive but beds/pillows were comfortable, the room was clean.  I especially liked that there was a ceiling fan.  The carpet in both the room and halls looked new (I didn't feel I would get a disease walking on the carpet barefoot!).  Everything smelled fresh.  The continental breakfast had a good selection that was kept well supplied at all times (two women took care of the breakfast area) and it was clean; BUT there were some REALLY weird looking eggs!! The staff was friendly.  The hotel was close to restaurants and standard shopping, easy to get on the freeway to where ever you wanted to go.  I liked it so much I came back the next night from Galveston; got a better room rate and even more comfortable beds; PS, the pillows appeared to be feather!  Overall very pleased, will definitely consider staying here if I'm ever back in Lake Jackson!  Funny how everyone's perception of the same thing is different!  BUt this was a very good place to stay in my opinion.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>On my way to Galveston, spent the night of July 5 in Lake Jackson, TX with absolutely no idea where to stay in an area close to lots of industry.  I chose Comfort Suites because it was clean on the outside, the area was very quite and the lobby was clean.  My room/suite was a little expensive but beds/pillows were comfortable, the room was clean.  I especially liked that there was a ceiling fan.  The carpet in both the room and halls looked new (I didn't feel I would get a disease walking on the carpet barefoot!).  Everything smelled fresh.  The continental breakfast had a good selection that was kept well supplied at all times (two women took care of the breakfast area) and it was clean; BUT there were some REALLY weird looking eggs!! The staff was friendly.  The hotel was close to restaurants and standard shopping, easy to get on the freeway to where ever you wanted to go.  I liked it so much I came back the next night from Galveston; got a better room rate and even more comfortable beds; PS, the pillows appeared to be feather!  Overall very pleased, will definitely consider staying here if I'm ever back in Lake Jackson!  Funny how everyone's perception of the same thing is different!  BUt this was a very good place to stay in my opinion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r164745129-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>164745129</t>
+  </si>
+  <si>
+    <t>06/21/2013</t>
+  </si>
+  <si>
+    <t>Clean, Customer Focused and Quiet Sleep</t>
+  </si>
+  <si>
+    <t>I have stayed here over the last 12 weeks on business.  Yes, twelve weeks.  I have stayed at other local hotels.  Their location is closer to Lake Jackson, right next to the main highway.  It is quiet and a great place for a good sleep.  Staff is very customer focused.  Place is always clean and well maintained.  I will be back.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r163198916-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>163198916</t>
+  </si>
+  <si>
+    <t>06/06/2013</t>
+  </si>
+  <si>
+    <t>Stayed Here About 7 Times Already</t>
+  </si>
+  <si>
+    <t>Great staff. Nice accomadations. Close to WalMart and food (fine dining &amp; fast food). Quiet at night, very relaxing. Not too far to drive to Houston or Kemah for a day trip. Lake Jackson has some small local educational things to attend also.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>CSLJ, Manager at Comfort Suites, responded to this reviewResponded June 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2013</t>
+  </si>
+  <si>
+    <t>Great staff. Nice accomadations. Close to WalMart and food (fine dining &amp; fast food). Quiet at night, very relaxing. Not too far to drive to Houston or Kemah for a day trip. Lake Jackson has some small local educational things to attend also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r145271330-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>145271330</t>
+  </si>
+  <si>
+    <t>11/12/2012</t>
+  </si>
+  <si>
+    <t>Comfort @ Lake Jackson</t>
+  </si>
+  <si>
+    <t>Small footprint, but the service was great.  The showers were fine but could use a little more water flow.Good coffee in the AM.  The breakfasts are OK, but the waffles you make fresh, and the eggs and sausage will keep you alive.  good selection of yogurt and cereals.  For the price it is fine.  The hotel is centrally located and right on the highway.  Kind of hard to spot because the sign is short so make sure you know EXACTLY where you are going.  Signage on Texas highways can be less than helpful.  Be sure to make a side trip to the intersection of This Way and That Way!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>CSLJ, Manager at Comfort Suites, responded to this reviewResponded November 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2012</t>
+  </si>
+  <si>
+    <t>Small footprint, but the service was great.  The showers were fine but could use a little more water flow.Good coffee in the AM.  The breakfasts are OK, but the waffles you make fresh, and the eggs and sausage will keep you alive.  good selection of yogurt and cereals.  For the price it is fine.  The hotel is centrally located and right on the highway.  Kind of hard to spot because the sign is short so make sure you know EXACTLY where you are going.  Signage on Texas highways can be less than helpful.  Be sure to make a side trip to the intersection of This Way and That Way!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r137898268-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>137898268</t>
+  </si>
+  <si>
+    <t>08/21/2012</t>
+  </si>
+  <si>
+    <t>No hot water</t>
+  </si>
+  <si>
+    <t>My aunt checked in a week before we checked in to the Comfort Suites in Lake Jackson. She reported daily that the hot water was not hot or for that matter even warm. The front desk would state they had to " turn on a switch" eventually after 20 minutes warm water would be available. She was on the first floor; we had two rooms and experienced the same. The night front sdesk had the television blaring; obviously watching ESPN. We were the only family in the lobby area trying to discuss family business, we had to yell at each other over the tv. He actually cut off the lights in order to make us feel we needed to leave. We were told we could have a discount, not on the bill. We also had a recommendation to Riverpoint restaurant with a free bowl of gumbo and the restaurant had NO IDEA! Coffe and cups in the bathroomMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>My aunt checked in a week before we checked in to the Comfort Suites in Lake Jackson. She reported daily that the hot water was not hot or for that matter even warm. The front desk would state they had to " turn on a switch" eventually after 20 minutes warm water would be available. She was on the first floor; we had two rooms and experienced the same. The night front sdesk had the television blaring; obviously watching ESPN. We were the only family in the lobby area trying to discuss family business, we had to yell at each other over the tv. He actually cut off the lights in order to make us feel we needed to leave. We were told we could have a discount, not on the bill. We also had a recommendation to Riverpoint restaurant with a free bowl of gumbo and the restaurant had NO IDEA! Coffe and cups in the bathroomMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r133353479-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>133353479</t>
+  </si>
+  <si>
+    <t>07/03/2012</t>
+  </si>
+  <si>
+    <t>Adequate, but need update A/C units</t>
+  </si>
+  <si>
+    <t>We had a situation where we rented a beach house, and had problems with it on the last night, so we booked this hotel on the fly at about 7 PM.  The girl at the front desk, Summer, couldn't have been more accommodating.  We arrived about an hour later, and she said our crib we ordered was in our room and the A/C units were on.  We had two rooms, but it took several hours for one of the rooms to cool off, as the units don't seem to be big enough for the room.  Other than that, it was a nicely appointed room, and the staff was very friendly.  Sort of tucked away in a quiet neighborhood, so you don't have to mess with highway noise or anything.  Not too bad for a last minute deal, and again, the staff was really great.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>We had a situation where we rented a beach house, and had problems with it on the last night, so we booked this hotel on the fly at about 7 PM.  The girl at the front desk, Summer, couldn't have been more accommodating.  We arrived about an hour later, and she said our crib we ordered was in our room and the A/C units were on.  We had two rooms, but it took several hours for one of the rooms to cool off, as the units don't seem to be big enough for the room.  Other than that, it was a nicely appointed room, and the staff was very friendly.  Sort of tucked away in a quiet neighborhood, so you don't have to mess with highway noise or anything.  Not too bad for a last minute deal, and again, the staff was really great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r114586539-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>114586539</t>
+  </si>
+  <si>
+    <t>06/20/2011</t>
+  </si>
+  <si>
+    <t>Terrible stay</t>
+  </si>
+  <si>
+    <t>I you want to overpay for a room this is the place. We were there for a tournament and we had a guest which booked a handicapped room but instead was given a room on the 3rd floor. The manager was very rude not to mention a bunch of old drunk people were cursing at our children and the manager did nothing about it. Their free breakfast is also nothing to brag about. The cleaning ladies knocked at our door 3 times before it was even time to check out. They basically push you out the door. Their WiFi is a mess and almost unusable. Last but not least their rate is $119 we stayed 2 nights and they hit my credit card for $295. How can taxes be almost $60? It is ridiculous!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>I you want to overpay for a room this is the place. We were there for a tournament and we had a guest which booked a handicapped room but instead was given a room on the 3rd floor. The manager was very rude not to mention a bunch of old drunk people were cursing at our children and the manager did nothing about it. Their free breakfast is also nothing to brag about. The cleaning ladies knocked at our door 3 times before it was even time to check out. They basically push you out the door. Their WiFi is a mess and almost unusable. Last but not least their rate is $119 we stayed 2 nights and they hit my credit card for $295. How can taxes be almost $60? It is ridiculous!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r22860965-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>22860965</t>
+  </si>
+  <si>
+    <t>12/19/2008</t>
+  </si>
+  <si>
+    <t>Management unresponsive to Invalid Charge</t>
+  </si>
+  <si>
+    <t>The manager, Mr. Lewis Bean, is not customer focused.  On Dec. 3, 2008, I reserved a room for Dec. 8, 2008.  Several hours later, I canceled the reservation.  Mr. Bean spoke with his personnel, and declared that the Dec. 4 charge was valid due to less than 24 hours cancellation!  He was condescending on the telephone, and more to the point, never considered or acknowledged my arguments.  I will also lodge a complaint with the Better Business Bureau and speak with our corporate travel function to have this vendor removed as a lodging selection.</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r20453062-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>20453062</t>
+  </si>
+  <si>
+    <t>09/28/2008</t>
+  </si>
+  <si>
+    <t>Not very helpful/responding to problems raised by customers</t>
+  </si>
+  <si>
+    <t>The hotel room look clean and fine. I lived in Room 101. The room is next to the laudry room and can hear the big noises of washer spinning and etc. An strange thing is the window curtain. The thick layer of curtain can not close all the way and it seems to be designed so. That seems a little bit wierd to me. In all other hotels that I stayed, we usually close the thick layer of curtain all the way for a dark sleeping room.Raised the problem to the front desk at 2:20pm, and the lady told me that they will have a look at it when their manager coming back. So I waited. Then I waited for hours, but the manager did not come. I asked again at 5pm. The lady told me the manager is taking an nap, and she can not wake him up. Such a long long nap... Terrible! All I can say is that they are ignoring customer's concerns.Will update this review after seeing if the manager will show up for this issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel room look clean and fine. I lived in Room 101. The room is next to the laudry room and can hear the big noises of washer spinning and etc. An strange thing is the window curtain. The thick layer of curtain can not close all the way and it seems to be designed so. That seems a little bit wierd to me. In all other hotels that I stayed, we usually close the thick layer of curtain all the way for a dark sleeping room.Raised the problem to the front desk at 2:20pm, and the lady told me that they will have a look at it when their manager coming back. So I waited. Then I waited for hours, but the manager did not come. I asked again at 5pm. The lady told me the manager is taking an nap, and she can not wake him up. Such a long long nap... Terrible! All I can say is that they are ignoring customer's concerns.Will update this review after seeing if the manager will show up for this issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r6095440-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>6095440</t>
+  </si>
+  <si>
+    <t>11/09/2006</t>
+  </si>
+  <si>
+    <t>Watch out!</t>
+  </si>
+  <si>
+    <t>I am using this form because of the character limit on
+&gt;your complaint/comment form.
+&gt;
+&gt;We chose the Comfort Inn to avoid the chemical plants.
+&gt;We paid a premium, nearly twice the price of the
+&gt;hotels in nearby Clute.
+&gt;
+&gt;We checked in with a government rate bringing a
+&gt;picture ID as requested.  On checkout we were told my
+&gt;government ID was not valid and the price would be the
+&gt; regular rack rate. This was done AFTER we checked in
+&gt;and had initialed the ID and rate.    When we told the
+&gt;desk clerk that the ID was valid she said she couldn't
+&gt;do anything about it. We asked for the manager. The
+&gt;desk clerk called the manager who turned out to be the
+&gt;owner (who was at the property) and he told her he
+&gt;would be with us in fifteen or twenty minutes, which
+&gt;was cutting it close for us as we had to drive to
+&gt;Houston to catch a plane. He did arrive a short time
+&gt;later and rectified the billing.
+&gt;
+&gt;The problem is  the rate was changed AFTER we checked
+&gt;in and were not notified until check out time.
+&gt;
+&gt;Also, as far as the property itself I feel it didn't
+&gt;meet the standards of other Comfort Inns we had been
+&gt;in. There was a broken window in our room and
+&gt;noticable dust and dirt between the TV stand and the
+&gt;dresser . When I had...I am using this form because of the character limit on&gt;your complaint/comment form.&gt;&gt;We chose the Comfort Inn to avoid the chemical plants.&gt;We paid a premium, nearly twice the price of the&gt;hotels in nearby Clute.&gt;&gt;We checked in with a government rate bringing a&gt;picture ID as requested.  On checkout we were told my&gt;government ID was not valid and the price would be the&gt; regular rack rate. This was done AFTER we checked in&gt;and had initialed the ID and rate.    When we told the&gt;desk clerk that the ID was valid she said she couldn't&gt;do anything about it. We asked for the manager. The&gt;desk clerk called the manager who turned out to be the&gt;owner (who was at the property) and he told her he&gt;would be with us in fifteen or twenty minutes, which&gt;was cutting it close for us as we had to drive to&gt;Houston to catch a plane. He did arrive a short time&gt;later and rectified the billing.&gt;&gt;The problem is  the rate was changed AFTER we checked&gt;in and were not notified until check out time.&gt;&gt;Also, as far as the property itself I feel it didn't&gt;meet the standards of other Comfort Inns we had been&gt;in. There was a broken window in our room and&gt;noticable dust and dirt between the TV stand and the&gt;dresser . When I had a problem with the hair dryer I&gt;was told no could help me until the owner got in which&gt;would't be until after 8:30AM. After taking the hair&gt;dryer to the front desk and owner was called and the&gt;problem was rectified. Also the waffle iron for the&gt;complementary breakfast was broken.&gt;[--]&gt;&gt;Dates of stay: November 3-6, 2006&gt;&gt;[--]MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2006</t>
+  </si>
+  <si>
+    <t>I am using this form because of the character limit on
+&gt;your complaint/comment form.
+&gt;
+&gt;We chose the Comfort Inn to avoid the chemical plants.
+&gt;We paid a premium, nearly twice the price of the
+&gt;hotels in nearby Clute.
+&gt;
+&gt;We checked in with a government rate bringing a
+&gt;picture ID as requested.  On checkout we were told my
+&gt;government ID was not valid and the price would be the
+&gt; regular rack rate. This was done AFTER we checked in
+&gt;and had initialed the ID and rate.    When we told the
+&gt;desk clerk that the ID was valid she said she couldn't
+&gt;do anything about it. We asked for the manager. The
+&gt;desk clerk called the manager who turned out to be the
+&gt;owner (who was at the property) and he told her he
+&gt;would be with us in fifteen or twenty minutes, which
+&gt;was cutting it close for us as we had to drive to
+&gt;Houston to catch a plane. He did arrive a short time
+&gt;later and rectified the billing.
+&gt;
+&gt;The problem is  the rate was changed AFTER we checked
+&gt;in and were not notified until check out time.
+&gt;
+&gt;Also, as far as the property itself I feel it didn't
+&gt;meet the standards of other Comfort Inns we had been
+&gt;in. There was a broken window in our room and
+&gt;noticable dust and dirt between the TV stand and the
+&gt;dresser . When I had...I am using this form because of the character limit on&gt;your complaint/comment form.&gt;&gt;We chose the Comfort Inn to avoid the chemical plants.&gt;We paid a premium, nearly twice the price of the&gt;hotels in nearby Clute.&gt;&gt;We checked in with a government rate bringing a&gt;picture ID as requested.  On checkout we were told my&gt;government ID was not valid and the price would be the&gt; regular rack rate. This was done AFTER we checked in&gt;and had initialed the ID and rate.    When we told the&gt;desk clerk that the ID was valid she said she couldn't&gt;do anything about it. We asked for the manager. The&gt;desk clerk called the manager who turned out to be the&gt;owner (who was at the property) and he told her he&gt;would be with us in fifteen or twenty minutes, which&gt;was cutting it close for us as we had to drive to&gt;Houston to catch a plane. He did arrive a short time&gt;later and rectified the billing.&gt;&gt;The problem is  the rate was changed AFTER we checked&gt;in and were not notified until check out time.&gt;&gt;Also, as far as the property itself I feel it didn't&gt;meet the standards of other Comfort Inns we had been&gt;in. There was a broken window in our room and&gt;noticable dust and dirt between the TV stand and the&gt;dresser . When I had a problem with the hair dryer I&gt;was told no could help me until the owner got in which&gt;would't be until after 8:30AM. After taking the hair&gt;dryer to the front desk and owner was called and the&gt;problem was rectified. Also the waffle iron for the&gt;complementary breakfast was broken.&gt;[--]&gt;&gt;Dates of stay: November 3-6, 2006&gt;&gt;[--]More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r6004556-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>6004556</t>
+  </si>
+  <si>
+    <t>10/23/2006</t>
+  </si>
+  <si>
+    <t>Nice, that's it</t>
+  </si>
+  <si>
+    <t>Hotel seems to built in 2000/2001 but slowly starts to be renovated. It's clean and the staff is friendly. It's not worn out yet,  and well maintained, but just needs some new tiles in the batch room. Free internet access, phone and alarm available. Airco makes a little noise, so it best to turn it off during the night. In the regoin price/ quality a definite above average.</t>
+  </si>
+  <si>
+    <t>September 2006</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1272,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1304,1926 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>123</v>
+      </c>
+      <c r="X11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>144</v>
+      </c>
+      <c r="X14" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" t="s">
+        <v>151</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>152</v>
+      </c>
+      <c r="X15" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" t="s">
+        <v>166</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>167</v>
+      </c>
+      <c r="O17" t="s">
+        <v>168</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" t="s">
+        <v>173</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>175</v>
+      </c>
+      <c r="X18" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>174</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>183</v>
+      </c>
+      <c r="X19" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" t="s">
+        <v>189</v>
+      </c>
+      <c r="L20" t="s">
+        <v>190</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>191</v>
+      </c>
+      <c r="O20" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>198</v>
+      </c>
+      <c r="O22" t="s">
+        <v>204</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>205</v>
+      </c>
+      <c r="X22" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" t="s">
+        <v>211</v>
+      </c>
+      <c r="L23" t="s">
+        <v>212</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>213</v>
+      </c>
+      <c r="O23" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>214</v>
+      </c>
+      <c r="X23" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>218</v>
+      </c>
+      <c r="J24" t="s">
+        <v>219</v>
+      </c>
+      <c r="K24" t="s">
+        <v>220</v>
+      </c>
+      <c r="L24" t="s">
+        <v>221</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>222</v>
+      </c>
+      <c r="O24" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>225</v>
+      </c>
+      <c r="J25" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" t="s">
+        <v>227</v>
+      </c>
+      <c r="L25" t="s">
+        <v>228</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>229</v>
+      </c>
+      <c r="O25" t="s">
+        <v>83</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>232</v>
+      </c>
+      <c r="J26" t="s">
+        <v>233</v>
+      </c>
+      <c r="K26" t="s">
+        <v>234</v>
+      </c>
+      <c r="L26" t="s">
+        <v>235</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>236</v>
+      </c>
+      <c r="O26" t="s">
+        <v>204</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>239</v>
+      </c>
+      <c r="J27" t="s">
+        <v>240</v>
+      </c>
+      <c r="K27" t="s">
+        <v>241</v>
+      </c>
+      <c r="L27" t="s">
+        <v>242</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>243</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>245</v>
+      </c>
+      <c r="J28" t="s">
+        <v>246</v>
+      </c>
+      <c r="K28" t="s">
+        <v>247</v>
+      </c>
+      <c r="L28" t="s">
+        <v>248</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>251</v>
+      </c>
+      <c r="J29" t="s">
+        <v>252</v>
+      </c>
+      <c r="K29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>255</v>
+      </c>
+      <c r="O29" t="s">
+        <v>83</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>258</v>
+      </c>
+      <c r="J30" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" t="s">
+        <v>260</v>
+      </c>
+      <c r="L30" t="s">
+        <v>261</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>262</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_118.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_118.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="398">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,54 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r567331756-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>56123</t>
+  </si>
+  <si>
+    <t>225740</t>
+  </si>
+  <si>
+    <t>567331756</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Anniversary night away</t>
+  </si>
+  <si>
+    <t>The beds are great, breakfast has plenty of options. Curb appeal is spot on, overall very clean location. Great for business trips and even night away from kids. Only negative is the paint colors are too dark and the last paint job looks rushed.....very noticeable to OCD people.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r564372627-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>564372627</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Hotel good &amp; clean -- but, food lacking!</t>
+  </si>
+  <si>
+    <t>Hotel is nice &amp; clean but breakfast food service lacking.  Hostess would only put out 3 of any hot item at a time.  Ex:  3 biscuits  &amp; 3 thin slices of ham    or  3 egg omelets.  I asked her if they had any more, as there were many people in breakfast area &amp; she said she could only do one at a time?????</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r562233673-Comfort_Suites-Lake_Jackson_Texas.html</t>
   </si>
   <si>
-    <t>56123</t>
-  </si>
-  <si>
-    <t>225740</t>
-  </si>
-  <si>
     <t>562233673</t>
   </si>
   <si>
@@ -207,9 +243,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Located right across the street from DOW chemicals. I am sure the hotel gets a lot of their business from DOW. The location is good. The staff were friendly. The room was large and comfortable. For breakfast, their eggs with cream cheese was amazing. On the negative side, the maintenance is showing a lack of attention to details that will catch up with them. The show head would not adjust and did not flow well. The tape job on the last painting was not done well in the bathroom, Paint on the door stop where it should not have been. The bathroom door had paint on the door handle. This shows shoddy workmanship, lack of attention to details.More</t>
   </si>
   <si>
@@ -231,6 +264,45 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r497539607-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>497539607</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Very nice Hotel and good staff</t>
+  </si>
+  <si>
+    <t>Nice comfortable room,  and a very good breakfast,  with lots of options for Vegetarian.Hot Waffles and various bread pastry items.  As well a good variety of  Danone Yogurts another amazing thing was lots of parking,  which sometimes is an issue with hotels.also only one hour drive from Houston George Bush Airport is also convenient.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r494713951-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>494713951</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>The visit was marred by so much noise that we got no sleep, and no help!</t>
+  </si>
+  <si>
+    <t>The physical plant is about average (~2-2.5 stars).  Basically clean, excellent access to the highway.  The rooms are very nice, clean, comfy, though quite basic.  Good selection of cable TV.The breakfast buffet is spartan and lacking, but it is a free meal to start out the day.My big gripe, and it is big is that we had the misfortune of being on the first floor.  Directly above us was guests.  A kid clunked on the floor as late as 3AM then again at 8AM.  The front desk was useless to stop the noise, though they did call the perps.  The people above us got "even" with us by increasing the noise and making hang up calls.  Needless to say we didn't sleep.On leaving, we tried to speak with the manager (Mr. Patel).  He wasn't on site but we were assured that he would get back to us.  He never did.  We tried to contact him, to no avail.I wouldn't recommend the place due to the above, and especially because they did not provide basic service.  La Quinta is close by, it is a better bet.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>The physical plant is about average (~2-2.5 stars).  Basically clean, excellent access to the highway.  The rooms are very nice, clean, comfy, though quite basic.  Good selection of cable TV.The breakfast buffet is spartan and lacking, but it is a free meal to start out the day.My big gripe, and it is big is that we had the misfortune of being on the first floor.  Directly above us was guests.  A kid clunked on the floor as late as 3AM then again at 8AM.  The front desk was useless to stop the noise, though they did call the perps.  The people above us got "even" with us by increasing the noise and making hang up calls.  Needless to say we didn't sleep.On leaving, we tried to speak with the manager (Mr. Patel).  He wasn't on site but we were assured that he would get back to us.  He never did.  We tried to contact him, to no avail.I wouldn't recommend the place due to the above, and especially because they did not provide basic service.  La Quinta is close by, it is a better bet.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r480731700-Comfort_Suites-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -246,9 +318,6 @@
     <t xml:space="preserve">We stopped here for the night while traveling through Texas. We didn't want to stay in the touristy Galveston area and nothing further down had great reviews until we got here. It was comfort, clean, and friendly. My only complaint was the lighting in the room was dim, no matter how many lights you turned on. </t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r477293581-Comfort_Suites-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -301,6 +370,60 @@
   </si>
   <si>
     <t>My husband and I stayed here for one night while in the area attending a funeral.  The place was tidy and clean, front reception was friendly, and the breakfast was plenty.  If ever in the area, we would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r459990429-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>459990429</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Amazing Comfort Suites in Lake Jackson!</t>
+  </si>
+  <si>
+    <t>Great property in Lake Jackson with friendly, courteous and very helpful staff! The bedroom was very roomy and very comfortable with a clean and spacious bathroom!! After many years traveling, this is definitely one of my favorite Comfort Inn properties. Loved staying here and can't wait to go back!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>CSLJ, General Manager at Comfort Suites, responded to this reviewResponded February 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2017</t>
+  </si>
+  <si>
+    <t>Great property in Lake Jackson with friendly, courteous and very helpful staff! The bedroom was very roomy and very comfortable with a clean and spacious bathroom!! After many years traveling, this is definitely one of my favorite Comfort Inn properties. Loved staying here and can't wait to go back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r455682278-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>455682278</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>Great Olace to stay in Lake Jackson, Texas</t>
+  </si>
+  <si>
+    <t>Arrived ahead of check in and was still able to get into my room.  Was given a goodie bag with water, chip and crackers.  The room was very clean, spacious and the sitting area was great.  It included microwave, and refrigerator.  The bathroom was clean and there was no rust!  Great location to the mall and restaurants.  Breakfast had a variety of things to choose from both hot and cold.MoreShow less</t>
+  </si>
+  <si>
+    <t>CSLJ, Manager at Comfort Suites, responded to this reviewResponded January 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2017</t>
+  </si>
+  <si>
+    <t>Arrived ahead of check in and was still able to get into my room.  Was given a goodie bag with water, chip and crackers.  The room was very clean, spacious and the sitting area was great.  It included microwave, and refrigerator.  The bathroom was clean and there was no rust!  Great location to the mall and restaurants.  Breakfast had a variety of things to choose from both hot and cold.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r448702807-Comfort_Suites-Lake_Jackson_Texas.html</t>
@@ -377,6 +500,60 @@
     <t>Stayed here for two nights with family and friends.  Had an issue with the key cards not working initially on arrival, many other folks that had just checked in had the same issue.  The room setup is nice with a couch and several tables.  There's a fridge and microwave.  A work center and office chair.  The bathroom, although large, was old and worn.  Toilet seat was stained and scraped up.  Shower curtain had holes.  Fixtures were old.  Good water pressure.  Everything was in working order.  Pool open 10-10, but had to get the desk clerk to open it for us.  Breakfast is hot, but typical of hotels.  They probably had more healthy breakfast options than normal though.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r400878001-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>400878001</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>quick weekend beach trip</t>
+  </si>
+  <si>
+    <t>We stayed here for a last minute weekend trip to Surfside. This is not a five star hotel. The rooms are kept clean and the beds are decent. The staff is very friendly and helpful. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>CSLJ, Manager at Comfort Suites, responded to this reviewResponded August 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for a last minute weekend trip to Surfside. This is not a five star hotel. The rooms are kept clean and the beds are decent. The staff is very friendly and helpful. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r370443209-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>370443209</t>
+  </si>
+  <si>
+    <t>05/05/2016</t>
+  </si>
+  <si>
+    <t>Very good for overnight stay.</t>
+  </si>
+  <si>
+    <t>Stayed here for a quick business trip, internet worked properly and did not have any issues. Property has been maintained but do not miss the exit from the freeway as you will have to drive for a while before being able to return to the hotel. Plenty of restaurants nearby. While it is slightly expensive the location makes up for the price. Will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>CSLJ, Manager at Comfort Suites, responded to this reviewResponded May 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for a quick business trip, internet worked properly and did not have any issues. Property has been maintained but do not miss the exit from the freeway as you will have to drive for a while before being able to return to the hotel. Plenty of restaurants nearby. While it is slightly expensive the location makes up for the price. Will stay again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r368442411-Comfort_Suites-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -390,15 +567,6 @@
   </si>
   <si>
     <t>Reserved a room for a corporate guest who was attending training at Brazosport College.  Booked the room through our corporate reservation tool and had a confirmation to apply charges to a third party credit card.  To my surprise, guest services made our guest personally pay for the room!  Very embarrassing.  Then on his next stay - our guest said he left for the day and came back to find the door to his room propped open with the safety bar - housekeeping should be accountable to ensure the room is locked behind them.  His personal items could have been stolen.  Unacceptable!MoreShow less</t>
-  </si>
-  <si>
-    <t>April 2016</t>
-  </si>
-  <si>
-    <t>CSLJ, Manager at Comfort Suites, responded to this reviewResponded May 8, 2016</t>
-  </si>
-  <si>
-    <t>Responded May 8, 2016</t>
   </si>
   <si>
     <t>Reserved a room for a corporate guest who was attending training at Brazosport College.  Booked the room through our corporate reservation tool and had a confirmation to apply charges to a third party credit card.  To my surprise, guest services made our guest personally pay for the room!  Very embarrassing.  Then on his next stay - our guest said he left for the day and came back to find the door to his room propped open with the safety bar - housekeeping should be accountable to ensure the room is locked behind them.  His personal items could have been stolen.  Unacceptable!More</t>
@@ -450,6 +618,42 @@
 You would also expect the highest priced hotel around to be able to slide your receipt under the door so they don't inconvenience you and make you have to go to the front desk...Do yourselves a favor and don't spend this much money when you could stay at a Hilton or Marriott chain nearby.This property was the most expensive property around and  you would not expect to have bugs in your room, something in the bathtub that looks like either explosive diarrhea or vomit that has not been cleaned, and a sign on your room air conditioner warning you that they have locked out the thermostat so you cannot set it below 68°F,  I have photos and will upload them if I can.I agree that 68° is plenty cold enough but these thermostats on a window unit are not always the most accurate. I was laying in my bed sweating with no covers on for most of the night.  I stay in hotels over 200 nights per year and have run across this just once or twice. They need to let you know when you're making the reservation that they have these limits in place. The bed was nothing to write home about but was not uncomfortable either.The "breakfast" that they serve there is completely ridiculous. You would actually get something that most people would refer to as breakfast at the Marriott or Hilton hotel chains. You would also expect the highest priced hotel around to be able to slide your receipt under the door so they don't inconvenience you and make you have to go to the front desk and wait for the attendant to get off the phone like I did.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r277696983-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>277696983</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasant Accommodations </t>
+  </si>
+  <si>
+    <t>Our room was clean, spacious, and the bed comfortable.  Hotel staff were pleasant and professional.  Hotel facilities were well maintained.  Several restaurants are within a  mile.  We walked to the River Point restaurant, which was only. 5 miles away and enjoyed the walk as well as the meal.  A typical complimentary breakfast rounded out our stay.  We would stay here again if we are ever back in town.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r271533223-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>271533223</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Watch your email....for an unexpected charge</t>
+  </si>
+  <si>
+    <t>We thought the hotel was lovely and quiet.  Checked out the next morning before 11.  By 11:30 had an email billing us $150 for smoking and cleanup.  Don't smoke, never did. Called the hotel, was promised a call from the manager.  Didn't receive one......drove 30 minutes back to the hotel.  Lady at the desk not terribly helpful until we got really angry. Said the housekeeping people smelled smoke. Ridiculous!  She reversed the charges, never got a call of apology from the manager.  We are platinum level Choice Hotel members but are quickly getting tired of what was their best choice in hotels over issues such as this.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r252570161-Comfort_Suites-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -522,6 +726,60 @@
     <t>I stayed here at the Candlewood Suites Lake Jackson for one quick night.  The hotel is a very good option if you are visiting the chemical plants down south in Freeport.   It's a short 10 minute drive down to Freeport. The hotel is a little bit on the older side, but the rooms are clean and quiet.  The bed is comfortable and the sheets were clean and nice.  The breakfast is fair (cereal, waffles, etc.) and standard for hotels in this price range. What I really enjoyed here was the friendly manager.   Flying in from Los Angeles, I could sense he took pride of management and his hotel.  I also sensed his sincerity in ensuring people enjoyed their stay at the hotel.  I really liked that.  I recommend this hotel and would stay again if staying in Lake Jackson.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r221851197-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>221851197</t>
+  </si>
+  <si>
+    <t>08/14/2014</t>
+  </si>
+  <si>
+    <t>Comfortable and Quiet</t>
+  </si>
+  <si>
+    <t>My room was very clean. I don't know what they do but every time I walked into my room, it smelled like someone had just come in and cleaned it - and I don't mean a chemical clean, more like the room had been aired out all day in a field of flowers. My bed was firm and the curtains thick enough that I had no problems falling asleep. The coffee maker came with real porcelain mugs. The complimentary breakfast included a waffle maker (one of the things I always look for wherever I stay). Staff was very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>CSLJ, Manager at Comfort Suites, responded to this reviewResponded August 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2014</t>
+  </si>
+  <si>
+    <t>My room was very clean. I don't know what they do but every time I walked into my room, it smelled like someone had just come in and cleaned it - and I don't mean a chemical clean, more like the room had been aired out all day in a field of flowers. My bed was firm and the curtains thick enough that I had no problems falling asleep. The coffee maker came with real porcelain mugs. The complimentary breakfast included a waffle maker (one of the things I always look for wherever I stay). Staff was very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r210574423-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>210574423</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Been staying at this hotel for years - good amenities.   Bed is most comfortable.   Staff are friendly and helpful.   There are a lot of hotels in the area but we have tried others and always come back to Comfort Suites.   Never a complaint when we stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>CSLJ, Manager at Comfort Suites, responded to this reviewResponded June 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2014</t>
+  </si>
+  <si>
+    <t>Been staying at this hotel for years - good amenities.   Bed is most comfortable.   Staff are friendly and helpful.   There are a lot of hotels in the area but we have tried others and always come back to Comfort Suites.   Never a complaint when we stay there.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r201282991-Comfort_Suites-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -540,9 +798,6 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r197776863-Comfort_Suites-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -594,6 +849,39 @@
     <t>It is pricier than the other hotels but I believe it is the best option for staying in the Lake Jackson area.  We have stayed there twice in the last six months.  The breakfast buffet is very good and there is a waffle maker.  The front desk persons were very helpful.  The pool is small, but there doesn't seem to be a lot of people using it anyway.  There is a small fitness room, but it does have a variety of machines.  Comfortable and clean rooms.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r175602339-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>175602339</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Near beach</t>
+  </si>
+  <si>
+    <t>This motel has been recently remodeled.  Our room was big and clean, but faced the highway so was also loud.  The breakfast was terrible.  We stayed four nights, and only one morning were there eggs or sausage.  There is not a waffle maker, which would be a great simple addition the motel could make to create a more edible breakfast.  The location was pretty good.  It was about a 10 minute drive south to the beach, and about a 5 minute drive north to the mall and eateries.  We would stay again if visiting this beach in the future.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r168245633-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>168245633</t>
+  </si>
+  <si>
+    <t>07/19/2013</t>
+  </si>
+  <si>
+    <t>The water in our room was BROWN!! The Manager was RUDE!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When we checked in the water in our room was brown. They said to keep flushing the water and it would clear up. It did after 6 HOURS!!The Manager was rude and unpleasant about the water in the room and pad locked the pool and told us to get out because it was cloudy. I have never been treated this way and I have stayed in many hotels. He also called us at 9:30 each night to tell us we were too loud and we were in bed already!!This the first time I've written a review but it was such a nightmare I had to warn others. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r167841909-Comfort_Suites-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -660,6 +948,51 @@
     <t>Great staff. Nice accomadations. Close to WalMart and food (fine dining &amp; fast food). Quiet at night, very relaxing. Not too far to drive to Houston or Kemah for a day trip. Lake Jackson has some small local educational things to attend also.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r153746743-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>153746743</t>
+  </si>
+  <si>
+    <t>03/04/2013</t>
+  </si>
+  <si>
+    <t>Marginal</t>
+  </si>
+  <si>
+    <t>Loud air conditioner units (sound like a plan taking off when they cycle on), pillows the size of postage stamps, mattresses and box springs that need replacement, and a breakfast buffet advertised as 'full' but really only continental.  Won't stay here again, and I'm returning in March 2013.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r145305719-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>145305719</t>
+  </si>
+  <si>
+    <t>11/13/2012</t>
+  </si>
+  <si>
+    <t>Best Stay in LJ!</t>
+  </si>
+  <si>
+    <t>I was skeptical at first because the Comfort Suites sign is hard to see, but I was very pleased. The rooms were big and very clean. I am OCD about these things!!! The coffee was always fresh in the lobby. The welcome bag was such a nice touch! We really enjoyed the free water and snacks! Nicki was a god-send! She helped us find a great place to eat (RiverPoint) and also turned us to the Lake Jackson museum. Heather in the lobby was helpful at breakfast, offered to make us waffles! We ended up staying an extra night in town to watch the game at another great recommendation (Beef O' Brady's). This hotel made our trip to lake jackson worthwhile.My only complaint is that the man working at the desk was very loud, He seemed to scream at me HELLO as soon as we walked into the door everytime. a little overwhelming, but would not cause us to stay elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>CSLJ, Manager at Comfort Suites, responded to this reviewResponded November 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2012</t>
+  </si>
+  <si>
+    <t>I was skeptical at first because the Comfort Suites sign is hard to see, but I was very pleased. The rooms were big and very clean. I am OCD about these things!!! The coffee was always fresh in the lobby. The welcome bag was such a nice touch! We really enjoyed the free water and snacks! Nicki was a god-send! She helped us find a great place to eat (RiverPoint) and also turned us to the Lake Jackson museum. Heather in the lobby was helpful at breakfast, offered to make us waffles! We ended up staying an extra night in town to watch the game at another great recommendation (Beef O' Brady's). This hotel made our trip to lake jackson worthwhile.My only complaint is that the man working at the desk was very loud, He seemed to scream at me HELLO as soon as we walked into the door everytime. a little overwhelming, but would not cause us to stay elsewhere.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r145271330-Comfort_Suites-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -675,9 +1008,6 @@
     <t>Small footprint, but the service was great.  The showers were fine but could use a little more water flow.Good coffee in the AM.  The breakfasts are OK, but the waffles you make fresh, and the eggs and sausage will keep you alive.  good selection of yogurt and cereals.  For the price it is fine.  The hotel is centrally located and right on the highway.  Kind of hard to spot because the sign is short so make sure you know EXACTLY where you are going.  Signage on Texas highways can be less than helpful.  Be sure to make a side trip to the intersection of This Way and That Way!!MoreShow less</t>
   </si>
   <si>
-    <t>November 2012</t>
-  </si>
-  <si>
     <t>CSLJ, Manager at Comfort Suites, responded to this reviewResponded November 14, 2012</t>
   </si>
   <si>
@@ -729,6 +1059,42 @@
     <t>We had a situation where we rented a beach house, and had problems with it on the last night, so we booked this hotel on the fly at about 7 PM.  The girl at the front desk, Summer, couldn't have been more accommodating.  We arrived about an hour later, and she said our crib we ordered was in our room and the A/C units were on.  We had two rooms, but it took several hours for one of the rooms to cool off, as the units don't seem to be big enough for the room.  Other than that, it was a nicely appointed room, and the staff was very friendly.  Sort of tucked away in a quiet neighborhood, so you don't have to mess with highway noise or anything.  Not too bad for a last minute deal, and again, the staff was really great.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r132177407-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>132177407</t>
+  </si>
+  <si>
+    <t>06/17/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>After reading the other reviews I was worried a little about the service and quality of this location. I am glad that we stayed at this hotel despite the somewhat bad reviews because it was worth it! Not only were the rooms spacious and well kept but the staff was very friendly. We stayed here for a softball tournament and the hotel was very accomodating to the entire team as well as the other teams that were staying there. Breakfast was always stocked up and hot which can be difficult with so many guests enjoying it at the same time. We stayed in a room with 2 queen size beds which was very spacious and they also had a pull out sofa since our kids do not like sleeping in the same bed which was nice. (The mattress was not great but what do you expect out of a pull out sofa). I would definitely recommend this hotel to anyone staying in the area that wants a good clean room with a great atmosphereMoreShow less</t>
+  </si>
+  <si>
+    <t>After reading the other reviews I was worried a little about the service and quality of this location. I am glad that we stayed at this hotel despite the somewhat bad reviews because it was worth it! Not only were the rooms spacious and well kept but the staff was very friendly. We stayed here for a softball tournament and the hotel was very accomodating to the entire team as well as the other teams that were staying there. Breakfast was always stocked up and hot which can be difficult with so many guests enjoying it at the same time. We stayed in a room with 2 queen size beds which was very spacious and they also had a pull out sofa since our kids do not like sleeping in the same bed which was nice. (The mattress was not great but what do you expect out of a pull out sofa). I would definitely recommend this hotel to anyone staying in the area that wants a good clean room with a great atmosphereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r120933944-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>120933944</t>
+  </si>
+  <si>
+    <t>11/22/2011</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>Stayed here on business for 3 nights. Lousy room. Came back at night and the night attendant is outside smoking with someone. The breakfast is terrible. I went down at 7, there was 5 slices of ham that the server spread around the hot plate so it looked full. Embarassing. If you are going to build a SUITE hotel put a flat screen in instead of a tube tv that buzzes with every channel. And the worst was, as a business traveller, the internet connection is so bad I got disconnected 15 times in 2 hours. Owner should be ashamed.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r114586539-Comfort_Suites-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -784,6 +1150,45 @@
   </si>
   <si>
     <t>The hotel room look clean and fine. I lived in Room 101. The room is next to the laudry room and can hear the big noises of washer spinning and etc. An strange thing is the window curtain. The thick layer of curtain can not close all the way and it seems to be designed so. That seems a little bit wierd to me. In all other hotels that I stayed, we usually close the thick layer of curtain all the way for a dark sleeping room.Raised the problem to the front desk at 2:20pm, and the lady told me that they will have a look at it when their manager coming back. So I waited. Then I waited for hours, but the manager did not come. I asked again at 5pm. The lady told me the manager is taking an nap, and she can not wake him up. Such a long long nap... Terrible! All I can say is that they are ignoring customer's concerns.Will update this review after seeing if the manager will show up for this issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r13471473-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>13471473</t>
+  </si>
+  <si>
+    <t>02/11/2008</t>
+  </si>
+  <si>
+    <t>Just what you'd expect</t>
+  </si>
+  <si>
+    <t>This is a basic budget hotel - no frills, nothing fancy.  There aren't an abundance of hotels in this area, and this one is fine if you must stay directly in Lake Jackson (not nearby Houston, where there are many more choices).  The hotel is clean and pretty quiet even if you have a room directly facing 288.  The fitness center was out of service when I stayed here, though the hotel instead offered free passes to a nearby fitness center which I thought was nice.  There are also less busy roads leading into neighborhoods behind the hotel if you want to go for a run/walk.  The hotel is in a decent location, just a few blocks from the downtown area (great restaurants like Cafe Annice and The Local are right there), and also not far from 332 which has tons of restaurants and basic shopping (Target, CVS etc.).MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>This is a basic budget hotel - no frills, nothing fancy.  There aren't an abundance of hotels in this area, and this one is fine if you must stay directly in Lake Jackson (not nearby Houston, where there are many more choices).  The hotel is clean and pretty quiet even if you have a room directly facing 288.  The fitness center was out of service when I stayed here, though the hotel instead offered free passes to a nearby fitness center which I thought was nice.  There are also less busy roads leading into neighborhoods behind the hotel if you want to go for a run/walk.  The hotel is in a decent location, just a few blocks from the downtown area (great restaurants like Cafe Annice and The Local are right there), and also not far from 332 which has tons of restaurants and basic shopping (Target, CVS etc.).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r6813018-Comfort_Suites-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>6813018</t>
+  </si>
+  <si>
+    <t>02/18/2007</t>
+  </si>
+  <si>
+    <t>Do Not Stay Here!</t>
+  </si>
+  <si>
+    <t>I researved 1 suite for 1 night and 3 adults on december the 25thwhen our credit card bill arrived we were charged for 3 nightsLewis Bean (the manager) said that someone stayed in our room for 3 nights and he insisted it was us.  We can prove that we did not stay because of gas card purchases on the 26th of december when we traveled back home to the austin area.  we have witnesses from our church who saw us on the night of the 26th.we sent a protest to our credit card company and the better business bureau,chamber of commerce in lake jackson and the city hall.Lewis Bean would not let me speak to the owner of the hotel (Depack Patel)Lewis Bean would not even be reasonable and hung on me twice.We were told by a city official the Lewis Bean has been a manager of many of the hotels in Lake Jackson and Clute are.  They do not deal with him because of his bad customer service and this has happened to other people who have stayed at this hotel.Be very wise about where you stay when you travel to Lake Jackson because some hotels are thieves!MoreShow less</t>
+  </si>
+  <si>
+    <t>I researved 1 suite for 1 night and 3 adults on december the 25thwhen our credit card bill arrived we were charged for 3 nightsLewis Bean (the manager) said that someone stayed in our room for 3 nights and he insisted it was us.  We can prove that we did not stay because of gas card purchases on the 26th of december when we traveled back home to the austin area.  we have witnesses from our church who saw us on the night of the 26th.we sent a protest to our credit card company and the better business bureau,chamber of commerce in lake jackson and the city hall.Lewis Bean would not let me speak to the owner of the hotel (Depack Patel)Lewis Bean would not even be reasonable and hung on me twice.We were told by a city official the Lewis Bean has been a manager of many of the hotels in Lake Jackson and Clute are.  They do not deal with him because of his bad customer service and this has happened to other people who have stayed at this hotel.Be very wise about where you stay when you travel to Lake Jackson because some hotels are thieves!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d225740-r6095440-Comfort_Suites-Lake_Jackson_Texas.html</t>
@@ -1413,7 +1818,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1423,25 +1828,17 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1457,7 +1854,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1466,45 +1863,35 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
       <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1520,7 +1907,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1529,39 +1916,47 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1577,7 +1972,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1586,32 +1981,38 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -1634,7 +2035,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1643,25 +2044,25 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>79</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>80</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>81</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>82</v>
-      </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1672,14 +2073,10 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X6" t="s">
-        <v>85</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1695,7 +2092,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1704,43 +2101,43 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>93</v>
-      </c>
-      <c r="X7" t="s">
-        <v>85</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -1756,7 +2153,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1765,37 +2162,35 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1803,7 +2198,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -1819,7 +2214,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1828,25 +2223,25 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1857,14 +2252,10 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>107</v>
-      </c>
-      <c r="X9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -1880,7 +2271,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1889,25 +2280,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1918,10 +2309,14 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>107</v>
+      </c>
+      <c r="X10" t="s">
+        <v>108</v>
+      </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
@@ -1937,7 +2332,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1946,49 +2341,43 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
         <v>53</v>
       </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="X11" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -2004,7 +2393,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2013,43 +2402,47 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>125</v>
+      </c>
+      <c r="X12" t="s">
+        <v>126</v>
+      </c>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
@@ -2065,7 +2458,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2074,35 +2467,47 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13" t="s">
+        <v>106</v>
+      </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" t="s">
+        <v>134</v>
+      </c>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
@@ -2118,7 +2523,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2127,49 +2532,45 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
         <v>139</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>140</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>141</v>
       </c>
-      <c r="L14" t="s">
-        <v>142</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>143</v>
-      </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>144</v>
-      </c>
-      <c r="X14" t="s">
-        <v>145</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
@@ -2185,7 +2586,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2194,47 +2595,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="X15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
@@ -2250,7 +2647,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2259,45 +2656,39 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
         <v>156</v>
       </c>
-      <c r="J16" t="s">
-        <v>157</v>
-      </c>
-      <c r="K16" t="s">
-        <v>158</v>
-      </c>
-      <c r="L16" t="s">
-        <v>159</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>160</v>
-      </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
@@ -2313,7 +2704,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2322,37 +2713,33 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
         <v>163</v>
       </c>
-      <c r="J17" t="s">
-        <v>164</v>
-      </c>
-      <c r="K17" t="s">
-        <v>165</v>
-      </c>
-      <c r="L17" t="s">
-        <v>166</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>167</v>
-      </c>
       <c r="O17" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
         <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
@@ -2361,8 +2748,12 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>164</v>
+      </c>
+      <c r="X17" t="s">
+        <v>165</v>
+      </c>
       <c r="Y17" t="s">
         <v>166</v>
       </c>
@@ -2380,7 +2771,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2389,38 +2780,34 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
         <v>170</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>171</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
         <v>172</v>
       </c>
-      <c r="L18" t="s">
-        <v>173</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>174</v>
-      </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>5</v>
@@ -2429,13 +2816,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
+        <v>173</v>
+      </c>
+      <c r="X18" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y18" t="s">
         <v>175</v>
-      </c>
-      <c r="X18" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="19">
@@ -2451,7 +2838,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2460,53 +2847,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" t="s">
         <v>179</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>180</v>
       </c>
-      <c r="K19" t="s">
-        <v>181</v>
-      </c>
-      <c r="L19" t="s">
-        <v>182</v>
-      </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
         <v>5</v>
       </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="X19" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="Y19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
@@ -2522,7 +2905,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2531,41 +2914,35 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" t="s">
+        <v>184</v>
+      </c>
+      <c r="K20" t="s">
+        <v>185</v>
+      </c>
+      <c r="L20" t="s">
+        <v>186</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
         <v>187</v>
       </c>
-      <c r="J20" t="s">
-        <v>188</v>
-      </c>
-      <c r="K20" t="s">
-        <v>189</v>
-      </c>
-      <c r="L20" t="s">
-        <v>190</v>
-      </c>
-      <c r="M20" t="n">
+      <c r="O20" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
         <v>4</v>
       </c>
-      <c r="N20" t="s">
-        <v>191</v>
-      </c>
-      <c r="O20" t="s">
-        <v>83</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2573,7 +2950,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
@@ -2589,7 +2966,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2598,49 +2975,35 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
-      </c>
-      <c r="N21" t="s">
-        <v>198</v>
-      </c>
-      <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>4</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
@@ -2656,7 +3019,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2665,53 +3028,39 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="J22" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O22" t="s">
-        <v>204</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>205</v>
-      </c>
-      <c r="X22" t="s">
-        <v>206</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23">
@@ -2727,7 +3076,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2736,53 +3085,45 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J23" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="O23" t="s">
-        <v>83</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>214</v>
-      </c>
-      <c r="X23" t="s">
-        <v>215</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24">
@@ -2798,7 +3139,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2807,49 +3148,49 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="J24" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="K24" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="L24" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="O24" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="n">
-        <v>2</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>212</v>
+      </c>
+      <c r="X24" t="s">
+        <v>213</v>
+      </c>
       <c r="Y24" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25">
@@ -2865,7 +3206,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2874,38 +3215,32 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="J25" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="K25" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="O25" t="s">
-        <v>83</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
         <v>5</v>
@@ -2913,10 +3248,14 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>220</v>
+      </c>
+      <c r="X25" t="s">
+        <v>221</v>
+      </c>
       <c r="Y25" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26">
@@ -2932,7 +3271,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2941,37 +3280,37 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="J26" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K26" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s">
-        <v>204</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>3</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2979,7 +3318,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27">
@@ -2995,7 +3334,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3004,43 +3343,47 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J27" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="K27" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>236</v>
+      </c>
+      <c r="X27" t="s">
+        <v>237</v>
+      </c>
       <c r="Y27" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28">
@@ -3056,7 +3399,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3065,35 +3408,53 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K28" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L28" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>244</v>
+      </c>
+      <c r="O28" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>245</v>
+      </c>
+      <c r="X28" t="s">
+        <v>246</v>
+      </c>
       <c r="Y28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29">
@@ -3109,7 +3470,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3118,39 +3479,41 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
+        <v>249</v>
+      </c>
+      <c r="J29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" t="s">
         <v>251</v>
       </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
         <v>252</v>
       </c>
-      <c r="K29" t="s">
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
         <v>253</v>
       </c>
-      <c r="L29" t="s">
-        <v>254</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="s">
-        <v>255</v>
-      </c>
       <c r="O29" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3158,7 +3521,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30">
@@ -3174,7 +3537,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3183,47 +3546,1353 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
+        <v>255</v>
+      </c>
+      <c r="J30" t="s">
+        <v>256</v>
+      </c>
+      <c r="K30" t="s">
+        <v>257</v>
+      </c>
+      <c r="L30" t="s">
         <v>258</v>
       </c>
-      <c r="J30" t="s">
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
         <v>259</v>
       </c>
-      <c r="K30" t="s">
-        <v>260</v>
-      </c>
-      <c r="L30" t="s">
-        <v>261</v>
-      </c>
-      <c r="M30" t="n">
-        <v>3</v>
-      </c>
-      <c r="N30" t="s">
-        <v>262</v>
-      </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
       <c r="Q30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>260</v>
+      </c>
+      <c r="X30" t="s">
+        <v>261</v>
+      </c>
       <c r="Y30" t="s">
-        <v>261</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>263</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>264</v>
+      </c>
+      <c r="J31" t="s">
+        <v>265</v>
+      </c>
+      <c r="K31" t="s">
+        <v>266</v>
+      </c>
+      <c r="L31" t="s">
+        <v>267</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>259</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>268</v>
+      </c>
+      <c r="X31" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" t="s">
+        <v>274</v>
+      </c>
+      <c r="L32" t="s">
+        <v>275</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>276</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>277</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>278</v>
+      </c>
+      <c r="J33" t="s">
+        <v>279</v>
+      </c>
+      <c r="K33" t="s">
+        <v>280</v>
+      </c>
+      <c r="L33" t="s">
+        <v>281</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>283</v>
+      </c>
+      <c r="J34" t="s">
+        <v>284</v>
+      </c>
+      <c r="K34" t="s">
+        <v>285</v>
+      </c>
+      <c r="L34" t="s">
+        <v>286</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>287</v>
+      </c>
+      <c r="O34" t="s">
+        <v>106</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>289</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>290</v>
+      </c>
+      <c r="J35" t="s">
+        <v>291</v>
+      </c>
+      <c r="K35" t="s">
+        <v>292</v>
+      </c>
+      <c r="L35" t="s">
+        <v>293</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>294</v>
+      </c>
+      <c r="O35" t="s">
+        <v>65</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>295</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>296</v>
+      </c>
+      <c r="J36" t="s">
+        <v>297</v>
+      </c>
+      <c r="K36" t="s">
+        <v>298</v>
+      </c>
+      <c r="L36" t="s">
+        <v>299</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>294</v>
+      </c>
+      <c r="O36" t="s">
+        <v>300</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>301</v>
+      </c>
+      <c r="X36" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>304</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>305</v>
+      </c>
+      <c r="J37" t="s">
+        <v>306</v>
+      </c>
+      <c r="K37" t="s">
+        <v>307</v>
+      </c>
+      <c r="L37" t="s">
+        <v>308</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>309</v>
+      </c>
+      <c r="O37" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>310</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>311</v>
+      </c>
+      <c r="J38" t="s">
+        <v>312</v>
+      </c>
+      <c r="K38" t="s">
+        <v>313</v>
+      </c>
+      <c r="L38" t="s">
+        <v>314</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>315</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>316</v>
+      </c>
+      <c r="X38" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>319</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>320</v>
+      </c>
+      <c r="J39" t="s">
+        <v>321</v>
+      </c>
+      <c r="K39" t="s">
+        <v>322</v>
+      </c>
+      <c r="L39" t="s">
+        <v>323</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>315</v>
+      </c>
+      <c r="O39" t="s">
+        <v>106</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>324</v>
+      </c>
+      <c r="X39" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>327</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>328</v>
+      </c>
+      <c r="J40" t="s">
+        <v>329</v>
+      </c>
+      <c r="K40" t="s">
+        <v>330</v>
+      </c>
+      <c r="L40" t="s">
+        <v>331</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>332</v>
+      </c>
+      <c r="O40" t="s">
+        <v>106</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>334</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>335</v>
+      </c>
+      <c r="J41" t="s">
+        <v>336</v>
+      </c>
+      <c r="K41" t="s">
+        <v>337</v>
+      </c>
+      <c r="L41" t="s">
+        <v>338</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>339</v>
+      </c>
+      <c r="O41" t="s">
+        <v>106</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>341</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>342</v>
+      </c>
+      <c r="J42" t="s">
+        <v>343</v>
+      </c>
+      <c r="K42" t="s">
+        <v>344</v>
+      </c>
+      <c r="L42" t="s">
+        <v>345</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>339</v>
+      </c>
+      <c r="O42" t="s">
+        <v>106</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>347</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>348</v>
+      </c>
+      <c r="J43" t="s">
+        <v>349</v>
+      </c>
+      <c r="K43" t="s">
+        <v>350</v>
+      </c>
+      <c r="L43" t="s">
+        <v>351</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>352</v>
+      </c>
+      <c r="O43" t="s">
+        <v>65</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>353</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>354</v>
+      </c>
+      <c r="J44" t="s">
+        <v>355</v>
+      </c>
+      <c r="K44" t="s">
+        <v>356</v>
+      </c>
+      <c r="L44" t="s">
+        <v>357</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>358</v>
+      </c>
+      <c r="O44" t="s">
+        <v>300</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>360</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>361</v>
+      </c>
+      <c r="J45" t="s">
+        <v>362</v>
+      </c>
+      <c r="K45" t="s">
+        <v>363</v>
+      </c>
+      <c r="L45" t="s">
+        <v>364</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>365</v>
+      </c>
+      <c r="O45" t="s">
+        <v>65</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>366</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>367</v>
+      </c>
+      <c r="J46" t="s">
+        <v>368</v>
+      </c>
+      <c r="K46" t="s">
+        <v>369</v>
+      </c>
+      <c r="L46" t="s">
+        <v>370</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>372</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>373</v>
+      </c>
+      <c r="J47" t="s">
+        <v>374</v>
+      </c>
+      <c r="K47" t="s">
+        <v>375</v>
+      </c>
+      <c r="L47" t="s">
+        <v>376</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>377</v>
+      </c>
+      <c r="O47" t="s">
+        <v>65</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>379</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>380</v>
+      </c>
+      <c r="J48" t="s">
+        <v>381</v>
+      </c>
+      <c r="K48" t="s">
+        <v>382</v>
+      </c>
+      <c r="L48" t="s">
+        <v>383</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>385</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>386</v>
+      </c>
+      <c r="J49" t="s">
+        <v>387</v>
+      </c>
+      <c r="K49" t="s">
+        <v>388</v>
+      </c>
+      <c r="L49" t="s">
+        <v>389</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>390</v>
+      </c>
+      <c r="O49" t="s">
+        <v>106</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>38982</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>392</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>393</v>
+      </c>
+      <c r="J50" t="s">
+        <v>394</v>
+      </c>
+      <c r="K50" t="s">
+        <v>395</v>
+      </c>
+      <c r="L50" t="s">
+        <v>396</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>397</v>
+      </c>
+      <c r="O50" t="s">
+        <v>65</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
